--- a/product page/assets we're actually using/drinks and add on list.xlsx
+++ b/product page/assets we're actually using/drinks and add on list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Documents\webdev group\product page\assets we're actually using\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4E7E4-7262-49F8-BA4F-7542EC5DC93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174CD9BC-B911-47FA-84AE-E935C722EE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="6120" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>McCafé Iced Mochaccino</t>
   </si>
   <si>
-    <t>Match McFlurry with Oreo Solo</t>
-  </si>
-  <si>
     <t>Golden Apple Sundae</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Matcha McFlurry with Oreo Solo</t>
   </si>
 </sst>
 </file>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -476,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -529,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
